--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56603.97097840157</v>
+        <v>11263363.30082444</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56603.97097840157</v>
+        <v>11263363.30082444</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113123915.168555</v>
+        <v>46320483.0780884</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9942.822224775789</v>
+        <v>1121607.955624081</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18555.96240079774</v>
+        <v>2034656.309865212</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27169.10257681969</v>
+        <v>2947704.664106344</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35807.0973595144</v>
+        <v>3860753.018347476</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44445.09214220913</v>
+        <v>4773801.372588608</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53082.45804786777</v>
+        <v>5686812.30799916</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61719.90577450628</v>
+        <v>6599860.662240288</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70357.62468800059</v>
+        <v>7512909.016481415</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78995.26187394928</v>
+        <v>8425957.370722543</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87632.89905989794</v>
+        <v>9339005.724963671</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>96270.53624584661</v>
+        <v>10252054.07920481</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104908.1734317953</v>
+        <v>11165102.43344594</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113545.8106177439</v>
+        <v>12078150.78768708</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122183.4478036926</v>
+        <v>12991199.14192822</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130821.0849896413</v>
+        <v>13904247.49616935</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>388</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
